--- a/src/level.xlsx
+++ b/src/level.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20359"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\rpg\excel2lua\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\excel2lua\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C18C89-9B9F-4F85-9C41-2188E21B8ADE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -136,7 +135,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -464,21 +463,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="G92" sqref="G91:G92"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="33.625" customWidth="1"/>
-    <col min="6" max="6" width="11.875" customWidth="1"/>
-    <col min="7" max="7" width="14.125" customWidth="1"/>
+    <col min="1" max="4" width="33.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.88671875" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -498,7 +497,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -518,7 +517,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -538,7 +537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -559,7 +558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -580,7 +579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -601,7 +600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -622,7 +621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -643,7 +642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -664,7 +663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -682,10 +681,10 @@
         <v>7</v>
       </c>
       <c r="F10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -703,10 +702,10 @@
         <v>8</v>
       </c>
       <c r="F11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -724,10 +723,10 @@
         <v>9</v>
       </c>
       <c r="F12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -745,10 +744,10 @@
         <v>10</v>
       </c>
       <c r="F13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -766,10 +765,10 @@
         <v>11</v>
       </c>
       <c r="F14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
@@ -787,10 +786,10 @@
         <v>12</v>
       </c>
       <c r="F15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
@@ -808,10 +807,10 @@
         <v>13</v>
       </c>
       <c r="F16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
@@ -829,10 +828,10 @@
         <v>14</v>
       </c>
       <c r="F17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -850,10 +849,10 @@
         <v>15</v>
       </c>
       <c r="F18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
@@ -871,10 +870,10 @@
         <v>16</v>
       </c>
       <c r="F19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -892,10 +891,10 @@
         <v>17</v>
       </c>
       <c r="F20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
@@ -913,10 +912,10 @@
         <v>18</v>
       </c>
       <c r="F21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
@@ -934,10 +933,10 @@
         <v>19</v>
       </c>
       <c r="F22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
@@ -955,10 +954,10 @@
         <v>20</v>
       </c>
       <c r="F23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
@@ -976,10 +975,10 @@
         <v>21</v>
       </c>
       <c r="F24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
@@ -997,10 +996,10 @@
         <v>22</v>
       </c>
       <c r="F25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
@@ -1018,10 +1017,10 @@
         <v>23</v>
       </c>
       <c r="F26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24</v>
       </c>
@@ -1039,10 +1038,10 @@
         <v>24</v>
       </c>
       <c r="F27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
@@ -1060,10 +1059,10 @@
         <v>25</v>
       </c>
       <c r="F28">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
@@ -1081,10 +1080,10 @@
         <v>26</v>
       </c>
       <c r="F29">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
@@ -1102,10 +1101,10 @@
         <v>27</v>
       </c>
       <c r="F30">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
@@ -1123,10 +1122,10 @@
         <v>28</v>
       </c>
       <c r="F31">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
@@ -1144,10 +1143,10 @@
         <v>29</v>
       </c>
       <c r="F32">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30</v>
       </c>
@@ -1165,10 +1164,10 @@
         <v>30</v>
       </c>
       <c r="F33">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>31</v>
       </c>
@@ -1186,10 +1185,10 @@
         <v>31</v>
       </c>
       <c r="F34">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>32</v>
       </c>
@@ -1207,10 +1206,10 @@
         <v>32</v>
       </c>
       <c r="F35">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>33</v>
       </c>
@@ -1228,10 +1227,10 @@
         <v>33</v>
       </c>
       <c r="F36">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>34</v>
       </c>
@@ -1249,10 +1248,10 @@
         <v>34</v>
       </c>
       <c r="F37">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>35</v>
       </c>
@@ -1270,10 +1269,10 @@
         <v>35</v>
       </c>
       <c r="F38">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>36</v>
       </c>
@@ -1291,10 +1290,10 @@
         <v>36</v>
       </c>
       <c r="F39">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>37</v>
       </c>
@@ -1312,10 +1311,10 @@
         <v>37</v>
       </c>
       <c r="F40">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>38</v>
       </c>
@@ -1333,10 +1332,10 @@
         <v>38</v>
       </c>
       <c r="F41">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>39</v>
       </c>
@@ -1354,10 +1353,10 @@
         <v>39</v>
       </c>
       <c r="F42">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>40</v>
       </c>
@@ -1375,10 +1374,10 @@
         <v>40</v>
       </c>
       <c r="F43">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>41</v>
       </c>
@@ -1396,10 +1395,10 @@
         <v>41</v>
       </c>
       <c r="F44">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>42</v>
       </c>
@@ -1417,10 +1416,10 @@
         <v>42</v>
       </c>
       <c r="F45">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>43</v>
       </c>
@@ -1438,10 +1437,10 @@
         <v>43</v>
       </c>
       <c r="F46">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>44</v>
       </c>
@@ -1459,10 +1458,10 @@
         <v>44</v>
       </c>
       <c r="F47">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>45</v>
       </c>
@@ -1480,10 +1479,10 @@
         <v>45</v>
       </c>
       <c r="F48">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>46</v>
       </c>
@@ -1501,10 +1500,10 @@
         <v>46</v>
       </c>
       <c r="F49">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>47</v>
       </c>
@@ -1522,10 +1521,10 @@
         <v>47</v>
       </c>
       <c r="F50">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>48</v>
       </c>
@@ -1543,10 +1542,10 @@
         <v>48</v>
       </c>
       <c r="F51">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>49</v>
       </c>
@@ -1564,10 +1563,10 @@
         <v>49</v>
       </c>
       <c r="F52">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>50</v>
       </c>
@@ -1585,10 +1584,10 @@
         <v>50</v>
       </c>
       <c r="F53">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>51</v>
       </c>
@@ -1606,10 +1605,10 @@
         <v>51</v>
       </c>
       <c r="F54">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>52</v>
       </c>
@@ -1627,10 +1626,10 @@
         <v>52</v>
       </c>
       <c r="F55">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>53</v>
       </c>
@@ -1648,10 +1647,10 @@
         <v>53</v>
       </c>
       <c r="F56">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>54</v>
       </c>
@@ -1669,10 +1668,10 @@
         <v>54</v>
       </c>
       <c r="F57">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>55</v>
       </c>
@@ -1690,10 +1689,10 @@
         <v>55</v>
       </c>
       <c r="F58">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>56</v>
       </c>
@@ -1711,10 +1710,10 @@
         <v>56</v>
       </c>
       <c r="F59">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>57</v>
       </c>
@@ -1732,10 +1731,10 @@
         <v>57</v>
       </c>
       <c r="F60">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>58</v>
       </c>
@@ -1753,10 +1752,10 @@
         <v>58</v>
       </c>
       <c r="F61">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>59</v>
       </c>
@@ -1774,10 +1773,10 @@
         <v>59</v>
       </c>
       <c r="F62">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>60</v>
       </c>
@@ -1795,10 +1794,10 @@
         <v>60</v>
       </c>
       <c r="F63">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>61</v>
       </c>
@@ -1816,10 +1815,10 @@
         <v>61</v>
       </c>
       <c r="F64">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>62</v>
       </c>
@@ -1837,10 +1836,10 @@
         <v>62</v>
       </c>
       <c r="F65">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>63</v>
       </c>
@@ -1858,10 +1857,10 @@
         <v>63</v>
       </c>
       <c r="F66">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>64</v>
       </c>
@@ -1879,10 +1878,10 @@
         <v>64</v>
       </c>
       <c r="F67">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>65</v>
       </c>
@@ -1900,10 +1899,10 @@
         <v>65</v>
       </c>
       <c r="F68">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>66</v>
       </c>
@@ -1921,10 +1920,10 @@
         <v>66</v>
       </c>
       <c r="F69">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>67</v>
       </c>
@@ -1942,10 +1941,10 @@
         <v>67</v>
       </c>
       <c r="F70">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>68</v>
       </c>
@@ -1963,10 +1962,10 @@
         <v>68</v>
       </c>
       <c r="F71">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>69</v>
       </c>
@@ -1984,10 +1983,10 @@
         <v>69</v>
       </c>
       <c r="F72">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>70</v>
       </c>
@@ -2005,10 +2004,10 @@
         <v>70</v>
       </c>
       <c r="F73">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>71</v>
       </c>
@@ -2026,10 +2025,10 @@
         <v>71</v>
       </c>
       <c r="F74">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>72</v>
       </c>
@@ -2047,10 +2046,10 @@
         <v>72</v>
       </c>
       <c r="F75">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>73</v>
       </c>
@@ -2068,10 +2067,10 @@
         <v>73</v>
       </c>
       <c r="F76">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>74</v>
       </c>
@@ -2089,10 +2088,10 @@
         <v>74</v>
       </c>
       <c r="F77">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>75</v>
       </c>
@@ -2110,10 +2109,10 @@
         <v>75</v>
       </c>
       <c r="F78">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>76</v>
       </c>
@@ -2131,10 +2130,10 @@
         <v>76</v>
       </c>
       <c r="F79">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>77</v>
       </c>
@@ -2152,10 +2151,10 @@
         <v>77</v>
       </c>
       <c r="F80">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>78</v>
       </c>
@@ -2173,10 +2172,10 @@
         <v>78</v>
       </c>
       <c r="F81">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>79</v>
       </c>
@@ -2194,10 +2193,10 @@
         <v>79</v>
       </c>
       <c r="F82">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>80</v>
       </c>
@@ -2215,10 +2214,10 @@
         <v>80</v>
       </c>
       <c r="F83">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>81</v>
       </c>
@@ -2236,10 +2235,10 @@
         <v>81</v>
       </c>
       <c r="F84">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>82</v>
       </c>
@@ -2257,10 +2256,10 @@
         <v>82</v>
       </c>
       <c r="F85">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>83</v>
       </c>
@@ -2278,10 +2277,10 @@
         <v>83</v>
       </c>
       <c r="F86">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>84</v>
       </c>
@@ -2299,10 +2298,10 @@
         <v>84</v>
       </c>
       <c r="F87">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>85</v>
       </c>
@@ -2320,10 +2319,10 @@
         <v>85</v>
       </c>
       <c r="F88">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>86</v>
       </c>
@@ -2341,10 +2340,10 @@
         <v>86</v>
       </c>
       <c r="F89">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>87</v>
       </c>
@@ -2362,10 +2361,10 @@
         <v>87</v>
       </c>
       <c r="F90">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>88</v>
       </c>
@@ -2383,10 +2382,10 @@
         <v>88</v>
       </c>
       <c r="F91">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>89</v>
       </c>
@@ -2404,10 +2403,10 @@
         <v>89</v>
       </c>
       <c r="F92">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>90</v>
       </c>
@@ -2425,7 +2424,7 @@
         <v>90</v>
       </c>
       <c r="F93">
-        <v>18</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2444,14 +2443,16 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2462,16 +2463,14 @@
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2481,13 +2480,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2499,13 +2498,13 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/src/level.xlsx
+++ b/src/level.xlsx
@@ -466,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -552,7 +552,7 @@
         <v>普卡村1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -573,7 +573,7 @@
         <v>普卡村2</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -594,7 +594,7 @@
         <v>普卡村3</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -615,7 +615,7 @@
         <v>普卡村4</v>
       </c>
       <c r="E7">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -636,7 +636,7 @@
         <v>普卡村5</v>
       </c>
       <c r="E8">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -657,7 +657,7 @@
         <v>陆南小径1</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -678,7 +678,7 @@
         <v>陆南小径2</v>
       </c>
       <c r="E10">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -699,7 +699,7 @@
         <v>陆南小径3</v>
       </c>
       <c r="E11">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F11">
         <v>4</v>
@@ -762,7 +762,7 @@
         <v>农田之地1</v>
       </c>
       <c r="E14">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="F14">
         <v>7</v>
@@ -783,7 +783,7 @@
         <v>农田之地2</v>
       </c>
       <c r="E15">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F15">
         <v>8</v>
@@ -804,7 +804,7 @@
         <v>农田之地3</v>
       </c>
       <c r="E16">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="F16">
         <v>9</v>
@@ -825,7 +825,7 @@
         <v>农田之地4</v>
       </c>
       <c r="E17">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F17">
         <v>10</v>
@@ -846,7 +846,7 @@
         <v>农田之地5</v>
       </c>
       <c r="E18">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="F18">
         <v>11</v>
@@ -867,7 +867,7 @@
         <v>加罗山1</v>
       </c>
       <c r="E19">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F19">
         <v>12</v>
@@ -888,7 +888,7 @@
         <v>加罗山2</v>
       </c>
       <c r="E20">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="F20">
         <v>13</v>
@@ -909,7 +909,7 @@
         <v>加罗山3</v>
       </c>
       <c r="E21">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="F21">
         <v>14</v>
@@ -972,7 +972,7 @@
         <v>基布林1</v>
       </c>
       <c r="E24">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="F24">
         <v>17</v>
@@ -993,7 +993,7 @@
         <v>基布林2</v>
       </c>
       <c r="E25">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="F25">
         <v>18</v>
@@ -1014,7 +1014,7 @@
         <v>基布林3</v>
       </c>
       <c r="E26">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F26">
         <v>19</v>
@@ -1035,7 +1035,7 @@
         <v>基布林4</v>
       </c>
       <c r="E27">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F27">
         <v>20</v>
@@ -1056,7 +1056,7 @@
         <v>基布林5</v>
       </c>
       <c r="E28">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="F28">
         <v>21</v>
@@ -1077,7 +1077,7 @@
         <v>北郡峭壁1</v>
       </c>
       <c r="E29">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="F29">
         <v>22</v>
@@ -1098,7 +1098,7 @@
         <v>北郡峭壁2</v>
       </c>
       <c r="E30">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F30">
         <v>23</v>
@@ -1119,7 +1119,7 @@
         <v>北郡峭壁3</v>
       </c>
       <c r="E31">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F31">
         <v>24</v>
@@ -1182,7 +1182,7 @@
         <v>尔维丘陵1</v>
       </c>
       <c r="E34">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F34">
         <v>27</v>
@@ -1203,7 +1203,7 @@
         <v>尔维丘陵2</v>
       </c>
       <c r="E35">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F35">
         <v>28</v>
@@ -1224,7 +1224,7 @@
         <v>尔维丘陵3</v>
       </c>
       <c r="E36">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="F36">
         <v>29</v>
@@ -1245,7 +1245,7 @@
         <v>尔维丘陵4</v>
       </c>
       <c r="E37">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="F37">
         <v>30</v>
@@ -1266,7 +1266,7 @@
         <v>尔维丘陵5</v>
       </c>
       <c r="E38">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F38">
         <v>31</v>
@@ -1287,7 +1287,7 @@
         <v>塔贝平原1</v>
       </c>
       <c r="E39">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="F39">
         <v>32</v>
@@ -1308,7 +1308,7 @@
         <v>塔贝平原2</v>
       </c>
       <c r="E40">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F40">
         <v>33</v>
@@ -1329,7 +1329,7 @@
         <v>塔贝平原3</v>
       </c>
       <c r="E41">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F41">
         <v>34</v>
@@ -1392,7 +1392,7 @@
         <v>港巴之桥1</v>
       </c>
       <c r="E44">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="F44">
         <v>37</v>
@@ -1413,7 +1413,7 @@
         <v>港巴之桥2</v>
       </c>
       <c r="E45">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="F45">
         <v>38</v>
@@ -1434,7 +1434,7 @@
         <v>港巴之桥3</v>
       </c>
       <c r="E46">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="F46">
         <v>39</v>
@@ -1455,7 +1455,7 @@
         <v>港巴之桥4</v>
       </c>
       <c r="E47">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="F47">
         <v>40</v>
@@ -1476,7 +1476,7 @@
         <v>港巴之桥5</v>
       </c>
       <c r="E48">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F48">
         <v>41</v>
@@ -1497,7 +1497,7 @@
         <v>哥龙堡1</v>
       </c>
       <c r="E49">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="F49">
         <v>42</v>
@@ -1518,7 +1518,7 @@
         <v>哥龙堡2</v>
       </c>
       <c r="E50">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F50">
         <v>43</v>
@@ -1539,7 +1539,7 @@
         <v>哥龙堡3</v>
       </c>
       <c r="E51">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F51">
         <v>44</v>
@@ -1560,7 +1560,7 @@
         <v>哥龙堡4</v>
       </c>
       <c r="E52">
-        <v>49</v>
+        <v>9</v>
       </c>
       <c r="F52">
         <v>45</v>
@@ -1581,7 +1581,7 @@
         <v>哥龙堡5</v>
       </c>
       <c r="E53">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F53">
         <v>46</v>
@@ -1602,7 +1602,7 @@
         <v>守望林地1</v>
       </c>
       <c r="E54">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="F54">
         <v>47</v>
@@ -1623,7 +1623,7 @@
         <v>守望林地2</v>
       </c>
       <c r="E55">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="F55">
         <v>48</v>
@@ -1644,7 +1644,7 @@
         <v>守望林地3</v>
       </c>
       <c r="E56">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="F56">
         <v>49</v>
@@ -1665,7 +1665,7 @@
         <v>守望林地4</v>
       </c>
       <c r="E57">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F57">
         <v>50</v>
@@ -1686,7 +1686,7 @@
         <v>守望林地5</v>
       </c>
       <c r="E58">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F58">
         <v>51</v>
@@ -1707,7 +1707,7 @@
         <v>萨丁石林1</v>
       </c>
       <c r="E59">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="F59">
         <v>52</v>
@@ -1728,7 +1728,7 @@
         <v>萨丁石林2</v>
       </c>
       <c r="E60">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="F60">
         <v>53</v>
@@ -1749,7 +1749,7 @@
         <v>萨丁石林3</v>
       </c>
       <c r="E61">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="F61">
         <v>54</v>
@@ -1770,7 +1770,7 @@
         <v>萨丁石林4</v>
       </c>
       <c r="E62">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="F62">
         <v>55</v>
@@ -1791,7 +1791,7 @@
         <v>萨丁石林5</v>
       </c>
       <c r="E63">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F63">
         <v>56</v>
@@ -1812,7 +1812,7 @@
         <v>玛特之脊1</v>
       </c>
       <c r="E64">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="F64">
         <v>57</v>
@@ -1833,7 +1833,7 @@
         <v>玛特之脊2</v>
       </c>
       <c r="E65">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="F65">
         <v>58</v>
@@ -1854,7 +1854,7 @@
         <v>玛特之脊3</v>
       </c>
       <c r="E66">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="F66">
         <v>59</v>
@@ -1875,7 +1875,7 @@
         <v>玛特之脊4</v>
       </c>
       <c r="E67">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="F67">
         <v>60</v>
@@ -1896,7 +1896,7 @@
         <v>玛特之脊5</v>
       </c>
       <c r="E68">
-        <v>65</v>
+        <v>9</v>
       </c>
       <c r="F68">
         <v>61</v>
@@ -1917,7 +1917,7 @@
         <v>戈卡沙漠1</v>
       </c>
       <c r="E69">
-        <v>66</v>
+        <v>10</v>
       </c>
       <c r="F69">
         <v>62</v>
@@ -1938,7 +1938,7 @@
         <v>戈卡沙漠2</v>
       </c>
       <c r="E70">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="F70">
         <v>63</v>
@@ -1959,7 +1959,7 @@
         <v>戈卡沙漠3</v>
       </c>
       <c r="E71">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="F71">
         <v>64</v>
@@ -1980,7 +1980,7 @@
         <v>戈卡沙漠4</v>
       </c>
       <c r="E72">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="F72">
         <v>65</v>
@@ -2001,7 +2001,7 @@
         <v>戈卡沙漠5</v>
       </c>
       <c r="E73">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="F73">
         <v>66</v>
@@ -2022,7 +2022,7 @@
         <v>古勒山谷1</v>
       </c>
       <c r="E74">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="F74">
         <v>67</v>
@@ -2043,7 +2043,7 @@
         <v>古勒山谷2</v>
       </c>
       <c r="E75">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="F75">
         <v>68</v>
@@ -2064,7 +2064,7 @@
         <v>古勒山谷3</v>
       </c>
       <c r="E76">
-        <v>73</v>
+        <v>9</v>
       </c>
       <c r="F76">
         <v>69</v>
@@ -2085,7 +2085,7 @@
         <v>古勒山谷4</v>
       </c>
       <c r="E77">
-        <v>74</v>
+        <v>10</v>
       </c>
       <c r="F77">
         <v>70</v>
@@ -2106,7 +2106,7 @@
         <v>古勒山谷5</v>
       </c>
       <c r="E78">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="F78">
         <v>71</v>
@@ -2127,7 +2127,7 @@
         <v>帕宁山脉1</v>
       </c>
       <c r="E79">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="F79">
         <v>72</v>
@@ -2148,7 +2148,7 @@
         <v>帕宁山脉2</v>
       </c>
       <c r="E80">
-        <v>77</v>
+        <v>29</v>
       </c>
       <c r="F80">
         <v>73</v>
@@ -2169,7 +2169,7 @@
         <v>帕宁山脉3</v>
       </c>
       <c r="E81">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="F81">
         <v>74</v>
@@ -2190,7 +2190,7 @@
         <v>帕宁山脉4</v>
       </c>
       <c r="E82">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="F82">
         <v>75</v>
@@ -2211,7 +2211,7 @@
         <v>帕宁山脉5</v>
       </c>
       <c r="E83">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F83">
         <v>76</v>
@@ -2232,7 +2232,7 @@
         <v>鲁伊城1</v>
       </c>
       <c r="E84">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="F84">
         <v>77</v>
@@ -2253,7 +2253,7 @@
         <v>鲁伊城2</v>
       </c>
       <c r="E85">
-        <v>82</v>
+        <v>10</v>
       </c>
       <c r="F85">
         <v>78</v>
@@ -2274,7 +2274,7 @@
         <v>鲁伊城3</v>
       </c>
       <c r="E86">
-        <v>83</v>
+        <v>19</v>
       </c>
       <c r="F86">
         <v>79</v>
@@ -2295,7 +2295,7 @@
         <v>鲁伊城4</v>
       </c>
       <c r="E87">
-        <v>84</v>
+        <v>20</v>
       </c>
       <c r="F87">
         <v>80</v>
@@ -2316,7 +2316,7 @@
         <v>鲁伊城5</v>
       </c>
       <c r="E88">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="F88">
         <v>81</v>
@@ -2337,7 +2337,7 @@
         <v>约纽中心1</v>
       </c>
       <c r="E89">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="F89">
         <v>82</v>
@@ -2358,7 +2358,7 @@
         <v>约纽中心2</v>
       </c>
       <c r="E90">
-        <v>87</v>
+        <v>39</v>
       </c>
       <c r="F90">
         <v>83</v>
@@ -2379,7 +2379,7 @@
         <v>约纽中心3</v>
       </c>
       <c r="E91">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="F91">
         <v>84</v>
@@ -2435,17 +2435,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2456,17 +2456,17 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2474,13 +2474,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2492,13 +2492,13 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>

--- a/src/level.xlsx
+++ b/src/level.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity_project\excel2lua\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rpg\excel2lua\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8736736-8C8A-4B70-82BD-7D46AF431B75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="13740"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -135,7 +144,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -463,21 +472,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="33.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" customWidth="1"/>
-    <col min="7" max="7" width="14.109375" customWidth="1"/>
+    <col min="1" max="4" width="33.625" customWidth="1"/>
+    <col min="6" max="6" width="11.875" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -497,7 +506,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -517,7 +526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -537,7 +546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -552,13 +561,13 @@
         <v>普卡村1</v>
       </c>
       <c r="E4">
-        <v>9</v>
+        <v>61001</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -573,13 +582,13 @@
         <v>普卡村2</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>61002</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -594,13 +603,13 @@
         <v>普卡村3</v>
       </c>
       <c r="E6">
-        <v>19</v>
+        <v>61003</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -615,13 +624,13 @@
         <v>普卡村4</v>
       </c>
       <c r="E7">
-        <v>20</v>
+        <v>61004</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -636,13 +645,13 @@
         <v>普卡村5</v>
       </c>
       <c r="E8">
-        <v>29</v>
+        <v>61005</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -657,13 +666,13 @@
         <v>陆南小径1</v>
       </c>
       <c r="E9">
-        <v>30</v>
+        <v>61006</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -678,13 +687,13 @@
         <v>陆南小径2</v>
       </c>
       <c r="E10">
-        <v>39</v>
+        <v>61007</v>
       </c>
       <c r="F10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -699,13 +708,13 @@
         <v>陆南小径3</v>
       </c>
       <c r="E11">
-        <v>40</v>
+        <v>61008</v>
       </c>
       <c r="F11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -720,13 +729,13 @@
         <v>陆南小径4</v>
       </c>
       <c r="E12">
-        <v>9</v>
+        <v>61009</v>
       </c>
       <c r="F12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -741,13 +750,13 @@
         <v>陆南小径5</v>
       </c>
       <c r="E13">
-        <v>10</v>
+        <v>61010</v>
       </c>
       <c r="F13">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -762,13 +771,13 @@
         <v>农田之地1</v>
       </c>
       <c r="E14">
-        <v>19</v>
+        <v>61011</v>
       </c>
       <c r="F14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -783,13 +792,13 @@
         <v>农田之地2</v>
       </c>
       <c r="E15">
-        <v>20</v>
+        <v>61012</v>
       </c>
       <c r="F15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -804,13 +813,13 @@
         <v>农田之地3</v>
       </c>
       <c r="E16">
-        <v>29</v>
+        <v>61013</v>
       </c>
       <c r="F16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -825,13 +834,13 @@
         <v>农田之地4</v>
       </c>
       <c r="E17">
-        <v>30</v>
+        <v>61014</v>
       </c>
       <c r="F17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
@@ -846,13 +855,13 @@
         <v>农田之地5</v>
       </c>
       <c r="E18">
-        <v>39</v>
+        <v>61015</v>
       </c>
       <c r="F18">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
@@ -867,13 +876,13 @@
         <v>加罗山1</v>
       </c>
       <c r="E19">
-        <v>40</v>
+        <v>61016</v>
       </c>
       <c r="F19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
@@ -888,13 +897,13 @@
         <v>加罗山2</v>
       </c>
       <c r="E20">
-        <v>9</v>
+        <v>61017</v>
       </c>
       <c r="F20">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
@@ -909,13 +918,13 @@
         <v>加罗山3</v>
       </c>
       <c r="E21">
-        <v>10</v>
+        <v>61018</v>
       </c>
       <c r="F21">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
@@ -930,13 +939,13 @@
         <v>加罗山4</v>
       </c>
       <c r="E22">
-        <v>19</v>
+        <v>61019</v>
       </c>
       <c r="F22">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
@@ -951,13 +960,13 @@
         <v>加罗山5</v>
       </c>
       <c r="E23">
-        <v>20</v>
+        <v>61020</v>
       </c>
       <c r="F23">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
@@ -972,13 +981,13 @@
         <v>基布林1</v>
       </c>
       <c r="E24">
-        <v>29</v>
+        <v>61021</v>
       </c>
       <c r="F24">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>22</v>
       </c>
@@ -993,13 +1002,13 @@
         <v>基布林2</v>
       </c>
       <c r="E25">
-        <v>30</v>
+        <v>61022</v>
       </c>
       <c r="F25">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>23</v>
       </c>
@@ -1014,13 +1023,13 @@
         <v>基布林3</v>
       </c>
       <c r="E26">
-        <v>39</v>
+        <v>61023</v>
       </c>
       <c r="F26">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>24</v>
       </c>
@@ -1035,13 +1044,13 @@
         <v>基布林4</v>
       </c>
       <c r="E27">
-        <v>40</v>
+        <v>61024</v>
       </c>
       <c r="F27">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>25</v>
       </c>
@@ -1056,13 +1065,13 @@
         <v>基布林5</v>
       </c>
       <c r="E28">
-        <v>9</v>
+        <v>61025</v>
       </c>
       <c r="F28">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>26</v>
       </c>
@@ -1077,13 +1086,13 @@
         <v>北郡峭壁1</v>
       </c>
       <c r="E29">
-        <v>10</v>
+        <v>61026</v>
       </c>
       <c r="F29">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27</v>
       </c>
@@ -1098,13 +1107,13 @@
         <v>北郡峭壁2</v>
       </c>
       <c r="E30">
-        <v>19</v>
+        <v>61027</v>
       </c>
       <c r="F30">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>28</v>
       </c>
@@ -1119,13 +1128,13 @@
         <v>北郡峭壁3</v>
       </c>
       <c r="E31">
-        <v>20</v>
+        <v>61028</v>
       </c>
       <c r="F31">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>29</v>
       </c>
@@ -1140,13 +1149,13 @@
         <v>北郡峭壁4</v>
       </c>
       <c r="E32">
-        <v>29</v>
+        <v>61029</v>
       </c>
       <c r="F32">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
@@ -1161,13 +1170,13 @@
         <v>北郡峭壁5</v>
       </c>
       <c r="E33">
-        <v>30</v>
+        <v>61030</v>
       </c>
       <c r="F33">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>31</v>
       </c>
@@ -1182,13 +1191,13 @@
         <v>尔维丘陵1</v>
       </c>
       <c r="E34">
-        <v>39</v>
+        <v>61031</v>
       </c>
       <c r="F34">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>32</v>
       </c>
@@ -1203,13 +1212,13 @@
         <v>尔维丘陵2</v>
       </c>
       <c r="E35">
-        <v>40</v>
+        <v>61032</v>
       </c>
       <c r="F35">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>33</v>
       </c>
@@ -1224,13 +1233,13 @@
         <v>尔维丘陵3</v>
       </c>
       <c r="E36">
-        <v>9</v>
+        <v>61033</v>
       </c>
       <c r="F36">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>34</v>
       </c>
@@ -1245,13 +1254,13 @@
         <v>尔维丘陵4</v>
       </c>
       <c r="E37">
-        <v>10</v>
+        <v>61034</v>
       </c>
       <c r="F37">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>35</v>
       </c>
@@ -1266,13 +1275,13 @@
         <v>尔维丘陵5</v>
       </c>
       <c r="E38">
-        <v>19</v>
+        <v>61035</v>
       </c>
       <c r="F38">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>36</v>
       </c>
@@ -1287,13 +1296,13 @@
         <v>塔贝平原1</v>
       </c>
       <c r="E39">
-        <v>20</v>
+        <v>61036</v>
       </c>
       <c r="F39">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>37</v>
       </c>
@@ -1308,13 +1317,13 @@
         <v>塔贝平原2</v>
       </c>
       <c r="E40">
-        <v>29</v>
+        <v>61037</v>
       </c>
       <c r="F40">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>38</v>
       </c>
@@ -1329,13 +1338,13 @@
         <v>塔贝平原3</v>
       </c>
       <c r="E41">
-        <v>30</v>
+        <v>61038</v>
       </c>
       <c r="F41">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>39</v>
       </c>
@@ -1350,13 +1359,13 @@
         <v>塔贝平原4</v>
       </c>
       <c r="E42">
-        <v>39</v>
+        <v>61039</v>
       </c>
       <c r="F42">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>40</v>
       </c>
@@ -1371,13 +1380,13 @@
         <v>塔贝平原5</v>
       </c>
       <c r="E43">
-        <v>40</v>
+        <v>61040</v>
       </c>
       <c r="F43">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>41</v>
       </c>
@@ -1392,13 +1401,13 @@
         <v>港巴之桥1</v>
       </c>
       <c r="E44">
+        <v>61041</v>
+      </c>
+      <c r="F44">
         <v>9</v>
       </c>
-      <c r="F44">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>42</v>
       </c>
@@ -1413,13 +1422,13 @@
         <v>港巴之桥2</v>
       </c>
       <c r="E45">
-        <v>10</v>
+        <v>61042</v>
       </c>
       <c r="F45">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>43</v>
       </c>
@@ -1434,13 +1443,13 @@
         <v>港巴之桥3</v>
       </c>
       <c r="E46">
-        <v>19</v>
+        <v>61043</v>
       </c>
       <c r="F46">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>44</v>
       </c>
@@ -1455,13 +1464,13 @@
         <v>港巴之桥4</v>
       </c>
       <c r="E47">
-        <v>20</v>
+        <v>61044</v>
       </c>
       <c r="F47">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>45</v>
       </c>
@@ -1476,13 +1485,13 @@
         <v>港巴之桥5</v>
       </c>
       <c r="E48">
-        <v>29</v>
+        <v>61045</v>
       </c>
       <c r="F48">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>46</v>
       </c>
@@ -1497,13 +1506,13 @@
         <v>哥龙堡1</v>
       </c>
       <c r="E49">
-        <v>30</v>
+        <v>61046</v>
       </c>
       <c r="F49">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>47</v>
       </c>
@@ -1518,13 +1527,13 @@
         <v>哥龙堡2</v>
       </c>
       <c r="E50">
-        <v>39</v>
+        <v>61047</v>
       </c>
       <c r="F50">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>48</v>
       </c>
@@ -1539,13 +1548,13 @@
         <v>哥龙堡3</v>
       </c>
       <c r="E51">
-        <v>40</v>
+        <v>61048</v>
       </c>
       <c r="F51">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>49</v>
       </c>
@@ -1560,13 +1569,13 @@
         <v>哥龙堡4</v>
       </c>
       <c r="E52">
-        <v>9</v>
+        <v>61049</v>
       </c>
       <c r="F52">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>50</v>
       </c>
@@ -1581,13 +1590,13 @@
         <v>哥龙堡5</v>
       </c>
       <c r="E53">
+        <v>61050</v>
+      </c>
+      <c r="F53">
         <v>10</v>
       </c>
-      <c r="F53">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>51</v>
       </c>
@@ -1602,13 +1611,13 @@
         <v>守望林地1</v>
       </c>
       <c r="E54">
-        <v>19</v>
+        <v>61051</v>
       </c>
       <c r="F54">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>52</v>
       </c>
@@ -1623,13 +1632,13 @@
         <v>守望林地2</v>
       </c>
       <c r="E55">
-        <v>20</v>
+        <v>61052</v>
       </c>
       <c r="F55">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>53</v>
       </c>
@@ -1644,13 +1653,13 @@
         <v>守望林地3</v>
       </c>
       <c r="E56">
-        <v>29</v>
+        <v>61053</v>
       </c>
       <c r="F56">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>54</v>
       </c>
@@ -1665,13 +1674,13 @@
         <v>守望林地4</v>
       </c>
       <c r="E57">
-        <v>30</v>
+        <v>61054</v>
       </c>
       <c r="F57">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>55</v>
       </c>
@@ -1686,13 +1695,13 @@
         <v>守望林地5</v>
       </c>
       <c r="E58">
-        <v>39</v>
+        <v>61055</v>
       </c>
       <c r="F58">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>56</v>
       </c>
@@ -1707,13 +1716,13 @@
         <v>萨丁石林1</v>
       </c>
       <c r="E59">
-        <v>40</v>
+        <v>61056</v>
       </c>
       <c r="F59">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>57</v>
       </c>
@@ -1728,13 +1737,13 @@
         <v>萨丁石林2</v>
       </c>
       <c r="E60">
-        <v>9</v>
+        <v>61057</v>
       </c>
       <c r="F60">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>58</v>
       </c>
@@ -1749,13 +1758,13 @@
         <v>萨丁石林3</v>
       </c>
       <c r="E61">
-        <v>10</v>
+        <v>61058</v>
       </c>
       <c r="F61">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>59</v>
       </c>
@@ -1770,13 +1779,13 @@
         <v>萨丁石林4</v>
       </c>
       <c r="E62">
-        <v>19</v>
+        <v>61059</v>
       </c>
       <c r="F62">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>60</v>
       </c>
@@ -1791,13 +1800,13 @@
         <v>萨丁石林5</v>
       </c>
       <c r="E63">
-        <v>20</v>
+        <v>61060</v>
       </c>
       <c r="F63">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>61</v>
       </c>
@@ -1812,13 +1821,13 @@
         <v>玛特之脊1</v>
       </c>
       <c r="E64">
-        <v>29</v>
+        <v>61061</v>
       </c>
       <c r="F64">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>62</v>
       </c>
@@ -1833,13 +1842,13 @@
         <v>玛特之脊2</v>
       </c>
       <c r="E65">
-        <v>30</v>
+        <v>61062</v>
       </c>
       <c r="F65">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>63</v>
       </c>
@@ -1854,13 +1863,13 @@
         <v>玛特之脊3</v>
       </c>
       <c r="E66">
-        <v>39</v>
+        <v>61063</v>
       </c>
       <c r="F66">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>64</v>
       </c>
@@ -1875,13 +1884,13 @@
         <v>玛特之脊4</v>
       </c>
       <c r="E67">
-        <v>40</v>
+        <v>61064</v>
       </c>
       <c r="F67">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>65</v>
       </c>
@@ -1896,13 +1905,13 @@
         <v>玛特之脊5</v>
       </c>
       <c r="E68">
-        <v>9</v>
+        <v>61065</v>
       </c>
       <c r="F68">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>66</v>
       </c>
@@ -1917,13 +1926,13 @@
         <v>戈卡沙漠1</v>
       </c>
       <c r="E69">
-        <v>10</v>
+        <v>61066</v>
       </c>
       <c r="F69">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>67</v>
       </c>
@@ -1938,13 +1947,13 @@
         <v>戈卡沙漠2</v>
       </c>
       <c r="E70">
-        <v>19</v>
+        <v>61067</v>
       </c>
       <c r="F70">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>68</v>
       </c>
@@ -1959,13 +1968,13 @@
         <v>戈卡沙漠3</v>
       </c>
       <c r="E71">
-        <v>20</v>
+        <v>61068</v>
       </c>
       <c r="F71">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>69</v>
       </c>
@@ -1980,13 +1989,13 @@
         <v>戈卡沙漠4</v>
       </c>
       <c r="E72">
-        <v>29</v>
+        <v>61069</v>
       </c>
       <c r="F72">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>70</v>
       </c>
@@ -2001,13 +2010,13 @@
         <v>戈卡沙漠5</v>
       </c>
       <c r="E73">
-        <v>30</v>
+        <v>61070</v>
       </c>
       <c r="F73">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>71</v>
       </c>
@@ -2022,13 +2031,13 @@
         <v>古勒山谷1</v>
       </c>
       <c r="E74">
-        <v>39</v>
+        <v>61071</v>
       </c>
       <c r="F74">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>72</v>
       </c>
@@ -2043,13 +2052,13 @@
         <v>古勒山谷2</v>
       </c>
       <c r="E75">
-        <v>40</v>
+        <v>61072</v>
       </c>
       <c r="F75">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>73</v>
       </c>
@@ -2064,13 +2073,13 @@
         <v>古勒山谷3</v>
       </c>
       <c r="E76">
-        <v>9</v>
+        <v>61073</v>
       </c>
       <c r="F76">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>74</v>
       </c>
@@ -2085,13 +2094,13 @@
         <v>古勒山谷4</v>
       </c>
       <c r="E77">
-        <v>10</v>
+        <v>61074</v>
       </c>
       <c r="F77">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>75</v>
       </c>
@@ -2106,13 +2115,13 @@
         <v>古勒山谷5</v>
       </c>
       <c r="E78">
-        <v>19</v>
+        <v>61075</v>
       </c>
       <c r="F78">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>76</v>
       </c>
@@ -2127,13 +2136,13 @@
         <v>帕宁山脉1</v>
       </c>
       <c r="E79">
-        <v>20</v>
+        <v>61076</v>
       </c>
       <c r="F79">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>77</v>
       </c>
@@ -2148,13 +2157,13 @@
         <v>帕宁山脉2</v>
       </c>
       <c r="E80">
-        <v>29</v>
+        <v>61077</v>
       </c>
       <c r="F80">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>78</v>
       </c>
@@ -2169,13 +2178,13 @@
         <v>帕宁山脉3</v>
       </c>
       <c r="E81">
-        <v>30</v>
+        <v>61078</v>
       </c>
       <c r="F81">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>79</v>
       </c>
@@ -2190,13 +2199,13 @@
         <v>帕宁山脉4</v>
       </c>
       <c r="E82">
-        <v>39</v>
+        <v>61079</v>
       </c>
       <c r="F82">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>80</v>
       </c>
@@ -2211,13 +2220,13 @@
         <v>帕宁山脉5</v>
       </c>
       <c r="E83">
-        <v>40</v>
+        <v>61080</v>
       </c>
       <c r="F83">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>81</v>
       </c>
@@ -2232,13 +2241,13 @@
         <v>鲁伊城1</v>
       </c>
       <c r="E84">
-        <v>9</v>
+        <v>61081</v>
       </c>
       <c r="F84">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>82</v>
       </c>
@@ -2253,13 +2262,13 @@
         <v>鲁伊城2</v>
       </c>
       <c r="E85">
-        <v>10</v>
+        <v>61082</v>
       </c>
       <c r="F85">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>83</v>
       </c>
@@ -2274,13 +2283,13 @@
         <v>鲁伊城3</v>
       </c>
       <c r="E86">
-        <v>19</v>
+        <v>61083</v>
       </c>
       <c r="F86">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>84</v>
       </c>
@@ -2295,13 +2304,13 @@
         <v>鲁伊城4</v>
       </c>
       <c r="E87">
-        <v>20</v>
+        <v>61084</v>
       </c>
       <c r="F87">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>85</v>
       </c>
@@ -2316,13 +2325,13 @@
         <v>鲁伊城5</v>
       </c>
       <c r="E88">
-        <v>29</v>
+        <v>61085</v>
       </c>
       <c r="F88">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>86</v>
       </c>
@@ -2337,13 +2346,13 @@
         <v>约纽中心1</v>
       </c>
       <c r="E89">
-        <v>30</v>
+        <v>61086</v>
       </c>
       <c r="F89">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>87</v>
       </c>
@@ -2358,13 +2367,13 @@
         <v>约纽中心2</v>
       </c>
       <c r="E90">
-        <v>39</v>
+        <v>61087</v>
       </c>
       <c r="F90">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>88</v>
       </c>
@@ -2379,13 +2388,13 @@
         <v>约纽中心3</v>
       </c>
       <c r="E91">
-        <v>40</v>
+        <v>61088</v>
       </c>
       <c r="F91">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>89</v>
       </c>
@@ -2400,13 +2409,13 @@
         <v>约纽中心4</v>
       </c>
       <c r="E92">
-        <v>89</v>
+        <v>61089</v>
       </c>
       <c r="F92">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>90</v>
       </c>
@@ -2421,10 +2430,10 @@
         <v>约纽中心5</v>
       </c>
       <c r="E93">
-        <v>90</v>
+        <v>61090</v>
       </c>
       <c r="F93">
-        <v>86</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -2435,33 +2444,10 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="2" master=""/>
-  <rangeList sheetStid="3" master=""/>
-</allowEditUser>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -2469,42 +2455,65 @@
 </settings>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="2" master=""/>
+  <rangeList sheetStid="3" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
+</file>
+
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
--- a/src/level.xlsx
+++ b/src/level.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\rpg\excel2lua\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8736736-8C8A-4B70-82BD-7D46AF431B75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCFFA4AA-3624-4EC2-83B4-3F36DC52C05D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -475,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="H86" sqref="H86"/>
+    <sheetView tabSelected="1" topLeftCell="C58" workbookViewId="0">
+      <selection activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -648,7 +648,7 @@
         <v>61005</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -753,7 +753,7 @@
         <v>61010</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -858,7 +858,7 @@
         <v>61015</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -963,7 +963,7 @@
         <v>61020</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1068,7 +1068,7 @@
         <v>61025</v>
       </c>
       <c r="F28">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1173,7 +1173,7 @@
         <v>61030</v>
       </c>
       <c r="F33">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1278,7 +1278,7 @@
         <v>61035</v>
       </c>
       <c r="F38">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1383,7 +1383,7 @@
         <v>61040</v>
       </c>
       <c r="F43">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -1488,7 +1488,7 @@
         <v>61045</v>
       </c>
       <c r="F48">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -1593,7 +1593,7 @@
         <v>61050</v>
       </c>
       <c r="F53">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -1698,7 +1698,7 @@
         <v>61055</v>
       </c>
       <c r="F58">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -1803,7 +1803,7 @@
         <v>61060</v>
       </c>
       <c r="F63">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -1908,7 +1908,7 @@
         <v>61065</v>
       </c>
       <c r="F68">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -2013,7 +2013,7 @@
         <v>61070</v>
       </c>
       <c r="F73">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -2118,7 +2118,7 @@
         <v>61075</v>
       </c>
       <c r="F78">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -2223,7 +2223,7 @@
         <v>61080</v>
       </c>
       <c r="F83">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -2328,7 +2328,7 @@
         <v>61085</v>
       </c>
       <c r="F88">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -2448,17 +2448,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="2"/>
+  <pixelatorList sheetStid="3"/>
+</pixelators>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2469,17 +2469,17 @@
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="2"/>
-  <pixelatorList sheetStid="3"/>
-</pixelators>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="2" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2489,13 +2489,13 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
@@ -2507,13 +2507,13 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs/>
 </ds:datastoreItem>
 </file>